--- a/ePICreator/xenical.xlsx
+++ b/ePICreator/xenical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0385568-458E-6941-946A-2DBA70F907E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FECCABA-DDA2-BB40-B922-852BA74A94E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t xml:space="preserve">Xenical 120mg hard capsules </t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>hard capsules</t>
-  </si>
-  <si>
-    <t>em</t>
   </si>
   <si>
     <t>EU/1/98/071/004|0xF79CABF272B6A7EEF104DDDA44E82809</t>
@@ -662,12 +656,18 @@
 &lt;p&gt;Do not use Xenical after the expiry date stated on the bottle. Do not store above 30 °C.&lt;/p&gt;&lt;p&gt;Keep container tightly closed in order to protect from moisture.  &lt;/p&gt;
 &lt;p&gt;Medicines should not be disposed via wastewater or household waste. Ask your pharmacist how to dispose of medicines no longer required. These measures will help to protect the environment.&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +795,12 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -817,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,9 +856,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -869,7 +876,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1226,10 +1233,10 @@
     <row r="2" spans="1:13" ht="34">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1247,13 +1254,13 @@
         <v>28</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="L2">
         <v>17489</v>
@@ -1283,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -1349,7 +1356,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>105</v>
@@ -1365,28 +1372,28 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1449,7 +1456,7 @@
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1470,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1534,10 +1541,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="14" t="s">
         <v>110</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1637,10 +1644,10 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1649,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1748,10 +1755,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1778,10 +1785,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1798,10 +1805,10 @@
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1818,10 +1825,10 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1838,10 +1845,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1858,10 +1865,10 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1878,10 +1885,10 @@
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1929,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1943,7 +1950,7 @@
     <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
@@ -1980,7 +1987,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
         <v>86</v>
@@ -2013,34 +2020,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>87</v>
@@ -2180,7 +2187,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
@@ -2189,16 +2196,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2267,7 +2274,7 @@
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>108</v>
@@ -2276,19 +2283,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="19">
         <v>100000073375</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" s="19">
         <v>100000073619</v>
@@ -2404,7 +2411,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2419,13 +2426,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I2" s="9">
         <v>7777</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" s="14">
         <v>100000073498</v>

--- a/ePICreator/xenical.xlsx
+++ b/ePICreator/xenical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FECCABA-DDA2-BB40-B922-852BA74A94E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F30D8-7F8C-694C-8033-EB52A5A406CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -876,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -916,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1022,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1164,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1457,6 +1457,9 @@
       </c>
       <c r="D2" t="s">
         <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/xenical.xlsx
+++ b/ePICreator/xenical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F30D8-7F8C-694C-8033-EB52A5A406CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADA225-620D-8346-83FB-028A094CDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -661,6 +661,216 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;XENICAL 120 mg cápsulas duras 
+Orlistat &lt;/p&gt;
+&lt;p&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento, porque 
+contiene información importante para usted. &lt;/p&gt;
+&lt;p&gt;• Conserve este prospecto, ya que  puede tener que volver a leerlo. &lt;/p&gt;
+&lt;p&gt;• Si tiene alguna duda, consulte a su médico* farmacéutico. &lt;/p&gt;
+&lt;p&gt;• Este medicamento se le ha recetado solamente a usted y no debe dárselo a otras personas, 
+aunque tengan los mismos síntomas que usted, ya que puede perjudicarles.  &lt;/p&gt;
+&lt;p&gt;• Si experimenta efectos adversos, consulte a su médico* farmacéutico, incluso si se trata de&lt;br&gt;efectos adversos que no aparecen en este prospecto. Ver sección 4 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Contenido del prospecto: &lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;Qué es Xenical y para qué se utiliza &lt;/li&gt;
+&lt;li&gt;Qué necesita saber antes de empezar a tomar Xenical &lt;/li&gt;
+&lt;li&gt;Cómo tomar Xenical &lt;/li&gt;
+&lt;li&gt;Posibles efectos adversos &lt;/li&gt;
+&lt;li&gt;Conservación de Xenical &lt;/li&gt;
+&lt;li&gt;Contenido del envase e información adicional &lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Xenical es un medicamento utilizado para tratar la obesidad. Actúa sobre su sistema digestivo 
+evitando que se digiera alrededor de un tercio de la grasa contenida en la comida que ingiere.&lt;br&gt;Xenical se une a enzimas de su sistema digestivo (lipasas) evitando que hidrolicen parte de las grasas 
+que ha ingerido durante la comida. La grasa no digerida no puede absorberse y su cuerpo la elimina. &lt;/p&gt;
+&lt;p&gt;Xenical está indicado para el tratamiento de la obesidad, junto con una dieta con bajo contenido en 
+calorías.  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;No tome XENICAL &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Si es alérgico (hipersensible) a orlistat o a cualquiera de los demás componentes de Xenical. &lt;/li&gt;
+&lt;li&gt;Si tiene síndrome de malabsorción crónica (absorción insuficiente de nutrientes a través del 
+tracto digestivo). &lt;/li&gt;
+&lt;li&gt;Si tiene colestasis (trastorno del hígado). &lt;/li&gt;
+&lt;li&gt;Si está en periodo de lactancia &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Advertencias y precauciones 
+La pérdida de peso puede también afectar a la dosis de los medicamentos que tome para otras 
+situaciones (p. ej. colesterol alto o diabetes). Asegúrese de informar a su médico si está tomando éstos 
+u otros medicamentos. La pérdida de peso puede significar que usted necesite un ajuste de la dosis de 
+estos medicamentos. &lt;/p&gt;
+&lt;p&gt;Para obtener el máximo beneficio de Xenical debe seguir el programa de nutrición recomendado por 
+su médico. Como ocurre con cualquier otro programa de control de peso, el consumo excesivo de 
+grasa y calorías puede reducir el efecto en la pérdida de peso. &lt;/p&gt;
+&lt;p&gt;Este medicamento puede causar un cambio no perjudicial en sus hábitos de evacuación intestinal, tal 
+como puede ser la presencia de heces grasas o aceitosas, debido a la eliminación por las heces de grasa 
+sin digerir. La posibilidad de que esto ocurra puede aumentar si Xenical se toma con una dieta rica en 
+grasa. Además, su ingesta diaria de grasa debe ser distribuida equitativamente entre las tres principales 
+comidas ya que si Xenical se toma con una comida muy alta en grasa se puede incrementar la 
+posibilidad de que se den efectos gastrointestinales. &lt;/p&gt;
+&lt;p&gt;En caso de diarrea grave podría haber un fallo de los anticonceptivos orales, por lo que se recomienda 
+el uso de un método anticonceptivo adicional. &lt;/p&gt;
+&lt;p&gt;En pacientes con enfermedad renal crónica, el uso de Orlistat puede estar asociado a cálculos renales. 
+Informe a su médico si tiene problemas de riñón. &lt;/p&gt;
+&lt;p&gt;Este medicamento contiene menos de 1 mmol de sodio (23 mg) por cápsula; esto es, esencialmente 
+“exento de sodio”. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Niños&lt;/strong&gt;&lt;br&gt;Xenical no está indicado para su uso en niños. &lt;/p&gt;
+&lt;p&gt;Toma de XENICAL con otros medicamentos 
+Informe a su médico o farmacéutico si está tomando o ha tomado recientemente o podría tener que 
+tomar cualquier otro medicamento. &lt;/p&gt;
+&lt;p&gt;Esto es importante ya que al utilizar más de un medicamento al mismo tiempo puede aumentar o 
+disminuir su efecto. &lt;/p&gt;
+&lt;p&gt;Xenical puede modificar la acción de: &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Anticoagulantes (p. ej. warfarina), por ello, su médico puede necesitar monitorizar su 
+coagulación sanguínea. &lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Ciclosporina. No se recomienda la administración conjunta con ciclosporina. Su médico puede 
+necesitar monitorizar sus niveles plasmáticos de ciclosporina con mayor frecuencia de lo 
+habitual. &lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Sales de yodo y/o levotiroxina. Pueden producir casos de hipotiroidismo y/o alteraciones del 
+control del hipotiroidismo. &lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Amiodarona. Consulte con su médico. &lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Medicamentos para tratar el SIDA. &lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Medicamentos para la depresión, para trastornos psiquiátricos o para la ansiedad. &lt;/p&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Xenical reduce la absorción de suplementos de algunos nutrientes solubles en grasa, especialmente de 
+beta-caroteno y vitamina E. Por lo tanto, deberá seguir el consejo de su médico y tomar una dieta 
+equilibrada rica en fruta y verduras. Puede que su médico le recomiende un suplemento 
+polivitamínico. &lt;/p&gt;
+&lt;p&gt;Orlistat puede alterar el tratamiento anticonvulsionante al disminuir la absorción de los medicamentos 
+antiepilépticos, lo que puede llevar a la aparición de  convulsiones. Consulte con su médico si 
+considera que la frecuencia o gravedad de las convulsiones ha cambiado al tomar Xenical junto con 
+medicamentos antiepilépticos. &lt;/p&gt;
+&lt;p&gt;No se recomienda Xenical para los que esten tomando acarbosa (fármaco anti-diabético usado para la 
+diabetes Tipo 2). &lt;/p&gt;
+&lt;p&gt;Toma de XENICAL con alimentos, bebida y alcohol 
+Xenical se puede tomar inmediatamente antes, durante la comida o hasta una hora después.  Se debe 
+tragar la cápsula con agua. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo y lactancia&lt;/strong&gt;&lt;br&gt;No se recomienda tomar Xenical durante el embarazo. 
+No debe amamantar a su hijo durante el tratamiento con Xenical, ya que se desconoce si Xenical pasa 
+a la leche materna. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas&lt;/strong&gt;&lt;br&gt;Xenical no tiene ningún efecto conocido sobre la capacidad para conducir o utilizar maquinas. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Siga exactamente las instrucciones de administración de Xenical indicadas por su médico. En caso de 
+duda, consulte a su médico o farmacéutico.&lt;br&gt;La dosis recomendada de Xenical es de una cápsula de 120 mg tomada con cada una de las tres 
+comidas principales del día. Se puede tomar inmediatamente antes, durante o hasta una hora después 
+de la comida. La cápsula debe ser ingerida con agua. &lt;/p&gt;
+&lt;p&gt;Xenical debe ser tomado con una dieta con control de calorías, bien equilibrada, rica en frutas y 
+verduras y que contenga una media del 30 % de las calorías provenientes de la grasa. Su ingesta diaria 
+de grasas, hidratos de carbono y proteínas debe ser distribuida en tres comidas. Esto quiere decir que 
+habitualmente tomará una cápsula en el desayuno, otra en la comida y otra en la cena. Para lograr 
+beneficios óptimos, evite la ingesta de alimentos que contengan grasa entre las comidas, tales como 
+galletas, chocolate o aperitivos salados. &lt;/p&gt;
+&lt;p&gt;Xenical actúa solamente en presencia de la grasas de la dieta. Por lo tanto, no necesita tomar Xenical 
+si no toma alguna comida principal o si toma una comida que no contenga grasa. 
+Si por cualquier motivo no ha tomado su medicina exactamente como se la han prescrito, dígaselo a su 
+médico. De lo contrario, su médico puede pensar que éste medicamento no fue eficaz o bien tolerado y 
+puede cambiar su tratamiento sin necesidad de ello. &lt;/p&gt;
+&lt;p&gt;Su médico interrumpirá el tratamiento con Xenical si después de 12 semanas no ha perdido al menos 
+el 5 % de su peso al inicio del tratamiento. &lt;/p&gt;
+&lt;p&gt;Xenical ha sido estudiado en ensayos clínicos de hasta 4 años de duración.  &lt;/p&gt;
+&lt;p&gt;Si toma más XENICAL del que debe 
+Si toma más cápsulas de las que le ha indicado su médico, o si alguna otra persona ingiere su 
+medicamento accidentalmente, contacte con su médico, farmacéutico u hospital ya que puede precisar 
+atención médica. &lt;/p&gt;
+&lt;p&gt;Si olvidó tomar XENICAL 
+Si olvida tomar su medicamento en cualquier momento, tómelo tan pronto como se acuerde a 
+condición de que sea hasta una hora después de ingerir su comida y a continuación continúe 
+tomándolo a los intervalos habituales. No tome una dosis doble para compensar las dosis olvidadas. Si 
+ha dejado de tomar varias dosis, por favor, informe a su médico y siga el consejo que éste le dé.  &lt;/p&gt;
+&lt;p&gt;No cambie por sí mismo la dosis prescrita a menos que se lo diga su médico. &lt;/p&gt;
+&lt;p&gt;Si tiene cualquier duda sobre el uso de este producto, pregunte a su medico o farmacéutico. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no 
+todas las personas los sufran. &lt;/p&gt;
+&lt;p&gt;Si no se encuentra bien mientras está tomando Xenical, coménteselo a su médico o farmacéutico lo 
+antes posible. &lt;/p&gt;
+&lt;p&gt;La mayoría de los efectos no deseados relacionados con el uso de Xenical son resultado de su acción 
+local sobre el sistema digestivo. Estos síntomas son generalmente moderados, ocurren al comienzo del 
+tratamiento, y se presentan sobre todo después de comidas que tienen altos niveles de grasa. 
+Normalmente, estos síntomas desaparecen si continúa con el tratamiento y sigue la dieta recomendada.  &lt;/p&gt;
+&lt;p&gt;Efectos adversos muy frecuentes (afectan a más de 1 de cada 10 pacientes) &lt;/p&gt;
+&lt;p&gt;Cefalea, dolor o molestias abdominales, urgencia o aumento de la necesidad de defecar, flatulencia 
+(gases) con incontinencia fecal, incontinencia fecal aceitosa, heces aceitosas o grasas, heces líquidas, 
+bajos niveles de azúcar en sangre (experimentado por algunos pacientes con diabetes tipo 2) &lt;/p&gt;
+&lt;p&gt;Efectos adversos frecuentes (afectan  a entre 1 y 10  de cada 100 pacientes) &lt;/p&gt;
+&lt;p&gt;Dolor o molestias rectales, heces blandas, incontinencia (fecal), hinchazón (experimentado por 
+algunos pacientes con diabetes tipo 2), alteraciones en los dientes y las encías, irregularidad del ciclo 
+menstrual, fatiga. &lt;/p&gt;
+&lt;p&gt;También se han comunicado los siguientes efectos adversos pero no se pueden estimar sus frecuencias 
+a partir de los datos disponibles:  &lt;/p&gt;
+&lt;p&gt;Reacciones alérgicas. Los síntomas principales son: picor, erupción cutánea, ronchas (zonas de piel 
+ligeramente elevadas que pican y que están más pálidas o enrojecidas que la piel de alrededor), gran 
+dificultad para respirar, náuseas, vómitos y malestar. Ampollas en la piel (incluyen las ampollas que se 
+explotan). Diverticulitis. Sangrado rectal. Pueden detectarse incrementos en los niveles de enzimas del 
+hígado en los análisis de sangre. Hepatitis (inflamación del hígado). Los síntomas pueden incluir 
+coloración amarillenta de la piel y de los ojos, picor, orina de color oscuro, dolor de estómago y 
+sensibilidad del hígado (indicado por dolor debajo de la parte frontal de la caja torácica en el lado 
+derecho), algunas veces con pérdida de apetito. Deje de tomar Xenical si aparecen estos síntomas e 
+informe a su médico. Cálculos biliares. Pancreatitis (inflamación del páncreas). Nefropatía por oxalato 
+(desarrollada por el oxalato de calcio que puede originar cálculos renales). Véase Capítulo 2, Tenga 
+especial cuidado con Xenical.Interacciones con anticoagulantes. &lt;/p&gt;
+&lt;p&gt;Comunicación de efectos adversos&lt;br&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico incluso si se 
+trata de  posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos 
+directamente a través del sistema nacional de notificación incluido en el Anexo V*. Mediante la 
+comunicación de efectos adversos usted puede contribuir a  proporcionar más información sobre la 
+seguridad de este medicamento. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Composición de  Xenical &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;El principio activo es orlistat. Cada cápsula contiene 120 mg de orlistat.  &lt;/li&gt;
+&lt;li&gt;Los demás componentes son celulosa microcristalina (E460), carboximetilalmidón sódico (tipo 
+A), povidona (E1201), laurilsulfato de sodio y talco. La cubierta de la cápsula está compuesta de 
+gelatina, índigo carmín (E132), dióxido de titanio (E171) y tinta comestible. &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Aspecto del producto y contenido del envase &lt;/p&gt;
+&lt;p&gt;Xenical son cápsulas de color turquesa con la inscripción &amp;quot;XENICAL 120&amp;quot; y se suministran en 
+envases blister y frascos de vidrio conteniendo 21, 42 y 84 cápsulas.&lt;br&gt;Puede que solamente estén comercializados algunos tamaños de envases. &lt;/p&gt;
+&lt;p&gt;Titular de la autorización de comercialización 
+CHEPLAPHARM Arzneimittel GmbH 
+Ziegelhof 17489 Greifswald&lt;br&gt;Alemania &lt;/p&gt;
+&lt;p&gt;Responsable de la fabricación 
+CHEPLAPHARM Arzneimittel GmbH 
+Bahnhofstr. 1a 
+17498 Mesekenhagen 
+Alemania &lt;/p&gt;
+&lt;p&gt;o &lt;/p&gt;
+&lt;p&gt;CHEPLAPHARM Arzneimittel GmbH 
+Ziegelhof 23-17489 Greifswald&lt;br&gt;Alemania &lt;/p&gt;
+&lt;p&gt;Fecha de la última revisión de este prospecto &lt;/p&gt;
+&lt;p&gt;La información detallada de este medicamento está disponible en la página web de la Agencia 
+Europea de Medicamentos &lt;a href="http://www.ema.europa.eu/"&gt;http://www.ema.europa.eu/&lt;/a&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mantener fuera de la vista y del alcance  de los niños. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Blisters &lt;/strong&gt;&lt;br&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase. 
+No conservar a temperatura superior a 25 ºC 
+Conservar en el embalaje original y mantener el blíster en el embalaje exterior para protegerlo de la 
+luz y de la humedad. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Frascos de cristal&lt;/strong&gt;&lt;br&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase. 
+No conservar a temperatura superior a 30 ºC 
+Mantener el envase perfectamente cerrado para protegerlo de la humedad &lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Pregunte a su farmacéutico cómo 
+deshacerse de los envases y de los medicamentos que ya no necesita. De esta forma ayudará a proteger 
+el medio ambiente. &lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1397,19 +1607,46 @@
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="B3" s="9"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+    <row r="3" spans="1:16" ht="409.6">
+      <c r="B3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1460,6 +1697,20 @@
       </c>
       <c r="E2" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/xenical.xlsx
+++ b/ePICreator/xenical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADA225-620D-8346-83FB-028A094CDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F167424F-6B60-614F-B54D-134BE8CE7FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -871,6 +871,9 @@
 &lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Pregunte a su farmacéutico cómo 
 deshacerse de los envases y de los medicamentos que ya no necesita. De esta forma ayudará a proteger 
 el medio ambiente. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XENICAL 120 mg cápsulas duras </t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L10" sqref="L9:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="3" spans="1:16" ht="409.6">
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>105</v>
@@ -1658,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
